--- a/biology/Zoologie/Boehlkea/Boehlkea.xlsx
+++ b/biology/Zoologie/Boehlkea/Boehlkea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boehlkea fredcochui est une espèce de poissons de la famille des Characidae. C'est la seule de son genre Boehlkea (monotypique).
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le bassin amazonien au Brésil, en Colombie et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le bassin amazonien au Brésil, en Colombie et au Pérou.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson mesure jusqu'à 41 mm.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant de nombreuses années, une autre espèce de poisson, Knodus borki, a été vendue par erreur sous le nom de Boehlkea fredcochui[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant de nombreuses années, une autre espèce de poisson, Knodus borki, a été vendue par erreur sous le nom de Boehlkea fredcochui.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, fredcochui, lui a été donné en l'honneur de Ferdinand (« Fred ») Cochu, du Paramount Aquarium à New-York, qui a introduit cette espèce pour l'aquariophilie vers 1956[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, fredcochui, lui a été donné en l'honneur de Ferdinand (« Fred ») Cochu, du Paramount Aquarium à New-York, qui a introduit cette espèce pour l'aquariophilie vers 1956.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Géry, 1966 : « A review of certain Tetragonopterinae (Characoidei), with the description of two new genera ». Ichthyologica, the Aquarium Journal, vol. 37, n. 5, p. 211-236.</t>
         </is>
